--- a/trunk/OLSRv2/docs/Statistics.xlsx
+++ b/trunk/OLSRv2/docs/Statistics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18240" windowHeight="11535" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18240" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="גיליון5" sheetId="5" r:id="rId4"/>
     <sheet name="גיליון6" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="22">
   <si>
     <t>Utilization</t>
   </si>
@@ -94,7 +94,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -103,7 +103,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -285,6 +285,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,9 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,7 +308,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -320,10 +320,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Minimal MPR Selection,                 Data through All, Uniform topology</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Optimal settings</a:t>
             </a:r>
-            <a:endParaRPr lang="he-IL" sz="1800" b="1" i="0" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -338,7 +337,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>גיליון1!$C$3</c:f>
+              <c:f>גיליון1!$C$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -352,10 +351,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:f>גיליון1!$B$78:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -373,33 +372,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$C$4:$C$9</c:f>
+              <c:f>גיליון1!$C$78:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9.1999999999999998E-3</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5900000000000001E-2</c:v>
+                  <c:v>2.69E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3099999999999999E-2</c:v>
+                  <c:v>3.61E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.86E-2</c:v>
+                  <c:v>4.6100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5900000000000001E-2</c:v>
+                  <c:v>4.3499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1699999999999999E-2</c:v>
+                  <c:v>4.4600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,7 +422,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>גיליון1!$D$3</c:f>
+              <c:f>גיליון1!$D$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -425,10 +436,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:f>גיליון1!$B$78:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -446,33 +457,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$D$4:$D$9</c:f>
+              <c:f>גיליון1!$D$78:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.4999999999999997E-3</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.26E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1299999999999999E-2</c:v>
+                  <c:v>1.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8700000000000001E-2</c:v>
+                  <c:v>2.1899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0899999999999998E-2</c:v>
+                  <c:v>2.3099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9600000000000001E-2</c:v>
+                  <c:v>2.4299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9700000000000001E-2</c:v>
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8899999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,7 +507,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>גיליון1!$E$3</c:f>
+              <c:f>גיליון1!$E$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -498,10 +521,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:f>גיליון1!$B$78:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -519,33 +542,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$E$4:$E$9</c:f>
+              <c:f>גיליון1!$E$78:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.4999999999999997E-3</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.12E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17E-2</c:v>
+                  <c:v>1.5299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.77E-2</c:v>
+                  <c:v>2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.01E-2</c:v>
+                  <c:v>2.3699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6800000000000001E-2</c:v>
+                  <c:v>2.4899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6800000000000001E-2</c:v>
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7699999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,7 +592,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>גיליון1!$F$3</c:f>
+              <c:f>גיליון1!$F$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -571,10 +606,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:f>גיליון1!$B$78:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -592,70 +627,82 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>גיליון1!$F$4:$F$9</c:f>
+              <c:f>גיליון1!$F$78:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.4000000000000003E-3</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06E-2</c:v>
+                  <c:v>1.66E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.66E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.89E-2</c:v>
+                  <c:v>2.2700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3199999999999998E-2</c:v>
+                  <c:v>2.12E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4500000000000001E-2</c:v>
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6100000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88927616"/>
-        <c:axId val="92154496"/>
+        <c:axId val="75766016"/>
+        <c:axId val="75764480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88927616"/>
+        <c:axId val="75766016"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92154496"/>
+        <c:crossAx val="75764480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92154496"/>
+        <c:axId val="75764480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88927616"/>
+        <c:crossAx val="75766016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -670,7 +717,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -679,7 +726,397 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Minimal MPR Selection,                 Data through All, Uniform topology</a:t>
+            </a:r>
+            <a:endParaRPr lang="he-IL" sz="1800" b="1" i="0" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1699999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Slow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9700000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6800000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="70260992"/>
+        <c:axId val="70279168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70260992"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70279168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70279168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70260992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="he-IL"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -697,7 +1134,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -995,23 +1431,33 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57840384"/>
-        <c:axId val="57843072"/>
+        <c:axId val="70322816"/>
+        <c:axId val="70328704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57840384"/>
+        <c:axId val="70322816"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57843072"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70328704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57843072"/>
+        <c:axId val="70328704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,28 +1465,47 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57840384"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70322816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="he-IL"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1063,7 +1528,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="he-IL" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1080,7 +1545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1378,23 +1842,33 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="71737344"/>
-        <c:axId val="71739264"/>
+        <c:axId val="70384256"/>
+        <c:axId val="70484352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71737344"/>
+        <c:axId val="70384256"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71739264"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70484352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71739264"/>
+        <c:axId val="70484352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,26 +1876,80 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71737344"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="he-IL"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70384256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="he-IL"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1456,7 +1984,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1491,7 +2019,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1527,7 +2055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1811,40 +2339,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N75"/>
+  <dimension ref="B1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1"/>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="3" t="s">
@@ -1889,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+    <row r="5" spans="2:14" ht="15.75" thickBot="1">
       <c r="B5" s="5">
         <v>0.2</v>
       </c>
@@ -1915,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1">
       <c r="B6" s="5">
         <v>0.3</v>
       </c>
@@ -1958,7 +2486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1">
+    <row r="8" spans="2:14" ht="15.75" thickBot="1">
       <c r="B8" s="5">
         <v>0.5</v>
       </c>
@@ -1980,7 +2508,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1">
       <c r="B9" s="5">
         <v>0.6</v>
       </c>
@@ -2002,14 +2530,14 @@
       <c r="M9" s="10"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1">
+    <row r="10" spans="2:14" ht="15.75" thickBot="1">
       <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1">
+    <row r="11" spans="2:14" ht="15.75" thickBot="1">
       <c r="L11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2017,12 +2545,12 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1">
       <c r="B13" s="3" t="s">
@@ -2067,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1">
       <c r="B15" s="5">
         <v>0.2</v>
       </c>
@@ -2093,7 +2621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1">
       <c r="B16" s="5">
         <v>0.3</v>
       </c>
@@ -2136,7 +2664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1">
       <c r="B18" s="5">
         <v>0.5</v>
       </c>
@@ -2158,7 +2686,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" ht="15" thickBot="1">
+    <row r="19" spans="2:14" ht="15.75" thickBot="1">
       <c r="B19" s="5">
         <v>0.6</v>
       </c>
@@ -2180,7 +2708,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="2:14" ht="15" thickBot="1">
+    <row r="20" spans="2:14" ht="15.75" thickBot="1">
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2188,12 +2716,12 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="L21" s="4" t="s">
         <v>21</v>
       </c>
@@ -2243,7 +2771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1">
       <c r="B24" s="5">
         <v>0.2</v>
       </c>
@@ -2269,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" thickBot="1">
+    <row r="25" spans="2:14" ht="15.75" thickBot="1">
       <c r="B25" s="5">
         <v>0.3</v>
       </c>
@@ -2312,7 +2840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" thickBot="1">
+    <row r="27" spans="2:14" ht="15.75" thickBot="1">
       <c r="B27" s="5">
         <v>0.5</v>
       </c>
@@ -2334,7 +2862,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" ht="15" thickBot="1">
+    <row r="28" spans="2:14" ht="15.75" thickBot="1">
       <c r="B28" s="5">
         <v>0.6</v>
       </c>
@@ -2356,7 +2884,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="2:14" ht="15" thickBot="1">
+    <row r="29" spans="2:14" ht="15.75" thickBot="1">
       <c r="L29" s="4" t="s">
         <v>20</v>
       </c>
@@ -2364,12 +2892,12 @@
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
       <c r="L30" s="4" t="s">
         <v>21</v>
       </c>
@@ -2392,7 +2920,7 @@
       <c r="F31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="2:14" ht="15.75" thickBot="1">
       <c r="B32" s="5">
@@ -2410,7 +2938,7 @@
       <c r="F32" s="9">
         <v>7.6E-3</v>
       </c>
-      <c r="I32" s="14"/>
+      <c r="I32" s="11"/>
       <c r="L32" s="2" t="s">
         <v>2</v>
       </c>
@@ -2421,7 +2949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15" thickBot="1">
+    <row r="33" spans="2:14" ht="15.75" thickBot="1">
       <c r="B33" s="5">
         <v>0.2</v>
       </c>
@@ -2437,7 +2965,7 @@
       <c r="F33" s="7">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="I33" s="14"/>
+      <c r="I33" s="11"/>
       <c r="L33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15" thickBot="1">
+    <row r="34" spans="2:14" ht="15.75" thickBot="1">
       <c r="B34" s="5">
         <v>0.3</v>
       </c>
@@ -2464,7 +2992,7 @@
       <c r="F34" s="7">
         <v>2.35E-2</v>
       </c>
-      <c r="I34" s="14"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" thickBot="1">
       <c r="B35" s="5">
@@ -2482,7 +3010,7 @@
       <c r="F35" s="7">
         <v>2.46E-2</v>
       </c>
-      <c r="I35" s="14"/>
+      <c r="I35" s="11"/>
       <c r="L35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +3021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15" thickBot="1">
+    <row r="36" spans="2:14" ht="15.75" thickBot="1">
       <c r="B36" s="5">
         <v>0.5</v>
       </c>
@@ -2509,14 +3037,14 @@
       <c r="F36" s="7">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="I36" s="14"/>
+      <c r="I36" s="11"/>
       <c r="L36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" ht="15" thickBot="1">
+    <row r="37" spans="2:14" ht="15.75" thickBot="1">
       <c r="B37" s="5">
         <v>0.6</v>
       </c>
@@ -2532,14 +3060,14 @@
       <c r="F37" s="7">
         <v>2.06E-2</v>
       </c>
-      <c r="I37" s="14"/>
+      <c r="I37" s="11"/>
       <c r="L37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="2:14" ht="15" thickBot="1">
+    <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="L38" s="4" t="s">
         <v>20</v>
       </c>
@@ -2547,12 +3075,12 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
       <c r="L39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15" thickBot="1">
+    <row r="42" spans="2:14" ht="15.75" thickBot="1">
       <c r="B42" s="5">
         <v>0.2</v>
       </c>
@@ -2628,7 +3156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" thickBot="1">
+    <row r="43" spans="2:14" ht="15.75" thickBot="1">
       <c r="B43" s="5">
         <v>0.3</v>
       </c>
@@ -2671,7 +3199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15" thickBot="1">
+    <row r="45" spans="2:14" ht="15.75" thickBot="1">
       <c r="B45" s="5">
         <v>0.5</v>
       </c>
@@ -2693,7 +3221,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14" ht="15" thickBot="1">
+    <row r="46" spans="2:14" ht="15.75" thickBot="1">
       <c r="B46" s="5">
         <v>0.6</v>
       </c>
@@ -2715,7 +3243,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="2:14" ht="15" thickBot="1">
+    <row r="47" spans="2:14" ht="15.75" thickBot="1">
       <c r="L47" s="4" t="s">
         <v>20</v>
       </c>
@@ -2723,12 +3251,12 @@
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
       <c r="L48" s="4" t="s">
         <v>21</v>
       </c>
@@ -2778,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="15" thickBot="1">
+    <row r="51" spans="2:14" ht="15.75" thickBot="1">
       <c r="B51" s="5">
         <v>0.2</v>
       </c>
@@ -2804,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="15" thickBot="1">
+    <row r="52" spans="2:14" ht="15.75" thickBot="1">
       <c r="B52" s="5">
         <v>0.3</v>
       </c>
@@ -2847,7 +3375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15" thickBot="1">
+    <row r="54" spans="2:14" ht="15.75" thickBot="1">
       <c r="B54" s="5">
         <v>0.5</v>
       </c>
@@ -2869,7 +3397,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" ht="15" thickBot="1">
+    <row r="55" spans="2:14" ht="15.75" thickBot="1">
       <c r="B55" s="5">
         <v>0.6</v>
       </c>
@@ -2891,7 +3419,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="2:14" ht="15" thickBot="1">
+    <row r="56" spans="2:14" ht="15.75" thickBot="1">
       <c r="L56" s="4" t="s">
         <v>20</v>
       </c>
@@ -2899,12 +3427,12 @@
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
       <c r="L57" s="4" t="s">
         <v>21</v>
       </c>
@@ -2954,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="15" thickBot="1">
+    <row r="60" spans="2:14" ht="15.75" thickBot="1">
       <c r="B60" s="5">
         <v>0.2</v>
       </c>
@@ -2980,7 +3508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:14" ht="15" thickBot="1">
+    <row r="61" spans="2:14" ht="15.75" thickBot="1">
       <c r="B61" s="5">
         <v>0.3</v>
       </c>
@@ -3023,7 +3551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="15" thickBot="1">
+    <row r="63" spans="2:14" ht="15.75" thickBot="1">
       <c r="B63" s="5">
         <v>0.5</v>
       </c>
@@ -3045,7 +3573,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" ht="15" thickBot="1">
+    <row r="64" spans="2:14" ht="15.75" thickBot="1">
       <c r="B64" s="5">
         <v>0.6</v>
       </c>
@@ -3067,7 +3595,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="2:14" ht="15" thickBot="1">
+    <row r="65" spans="2:14" ht="15.75" thickBot="1">
       <c r="L65" s="4" t="s">
         <v>20</v>
       </c>
@@ -3075,12 +3603,12 @@
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="L66" s="4" t="s">
         <v>21</v>
       </c>
@@ -3130,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="15" thickBot="1">
+    <row r="69" spans="2:14" ht="15.75" thickBot="1">
       <c r="B69" s="5">
         <v>0.2</v>
       </c>
@@ -3156,7 +3684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="15" thickBot="1">
+    <row r="70" spans="2:14" ht="15.75" thickBot="1">
       <c r="B70" s="5">
         <v>0.3</v>
       </c>
@@ -3199,7 +3727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="15" thickBot="1">
+    <row r="72" spans="2:14" ht="15.75" thickBot="1">
       <c r="B72" s="5">
         <v>0.5</v>
       </c>
@@ -3221,7 +3749,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="2:14" ht="15" thickBot="1">
+    <row r="73" spans="2:14" ht="15.75" thickBot="1">
       <c r="B73" s="5">
         <v>0.6</v>
       </c>
@@ -3243,22 +3771,198 @@
       <c r="M73" s="10"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="2:14" ht="15" thickBot="1">
+    <row r="74" spans="2:14" ht="15.75" thickBot="1">
       <c r="L74" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M74" s="10"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="2:14" ht="15" thickBot="1">
+    <row r="75" spans="2:14" ht="15.75" thickBot="1">
       <c r="L75" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M75" s="10"/>
       <c r="N75" s="7"/>
     </row>
+    <row r="76" spans="2:14" ht="15.75" thickBot="1">
+      <c r="C76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B78" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F78" s="9">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B79" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C79" s="10">
+        <v>2.69E-2</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B80" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C80" s="10">
+        <v>3.61E-2</v>
+      </c>
+      <c r="D80" s="7">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="E80" s="7">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B81" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C81" s="10">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="E81" s="7">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="F81" s="7">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B82" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="10">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="E82" s="7">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B83" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C83" s="10">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E83" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F83" s="7">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B84" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C84" s="10">
+        <v>4.58E-2</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="E84" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F84" s="7">
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B85" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D85" s="7">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="E85" s="7">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="F85" s="7">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B86" s="5"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B87" s="5"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C76:F76"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C66:F66"/>
@@ -3270,6 +3974,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3281,30 +3986,30 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1"/>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3341,7 +4046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="5">
         <v>0.1</v>
       </c>
@@ -3384,7 +4089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="5">
         <v>0.3</v>
       </c>
@@ -3406,7 +4111,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
       <c r="B7" s="5">
         <v>0.4</v>
       </c>
@@ -3428,7 +4133,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" ht="15" thickBot="1">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1">
       <c r="B8" s="5">
         <v>0.5</v>
       </c>
@@ -3450,7 +4155,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1">
       <c r="B9" s="5">
         <v>0.6</v>
       </c>
@@ -3489,17 +4194,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="B3" s="3" t="s">
@@ -3518,7 +4223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1">
       <c r="B4" s="5">
         <v>0.1</v>
       </c>
@@ -3535,7 +4240,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1">
       <c r="B5" s="5">
         <v>0.2</v>
       </c>
@@ -3552,7 +4257,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="5">
         <v>0.3</v>
       </c>
@@ -3569,7 +4274,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
       <c r="B7" s="5">
         <v>0.4</v>
       </c>
@@ -3586,7 +4291,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1">
+    <row r="8" spans="2:6" ht="15.75" thickBot="1">
       <c r="B8" s="5">
         <v>0.5</v>
       </c>
@@ -3603,7 +4308,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1">
       <c r="B9" s="5">
         <v>0.6</v>
       </c>
@@ -3637,9 +4342,9 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3657,7 +4362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="B3" s="5">
         <v>0.1</v>
       </c>
@@ -3674,7 +4379,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1">
       <c r="B4" s="5">
         <v>0.2</v>
       </c>
@@ -3691,7 +4396,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1">
       <c r="B5" s="5">
         <v>0.3</v>
       </c>
@@ -3708,7 +4413,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="5">
         <v>0.4</v>
       </c>
@@ -3725,7 +4430,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
       <c r="B7" s="5">
         <v>0.5</v>
       </c>
@@ -3742,7 +4447,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1">
+    <row r="8" spans="2:6" ht="15.75" thickBot="1">
       <c r="B8" s="5">
         <v>0.6</v>
       </c>
@@ -3769,11 +4474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
